--- a/materials/exp_lists/session_2_9.xlsx
+++ b/materials/exp_lists/session_2_9.xlsx
@@ -83,7 +83,7 @@
     <t>rantare = корона?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>костер</t>
@@ -491,10 +491,10 @@
     <t>akufu = фен?</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = коробка?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = коробка?</t>
   </si>
   <si>
     <t>farimu.wav</t>
